--- a/docs/LVTN_DeTaiChiaSeVideo_Planing 26.11 - 02.12.xlsx
+++ b/docs/LVTN_DeTaiChiaSeVideo_Planing 26.11 - 02.12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Công Việc Chung" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="86">
   <si>
     <t>Thời gian thực hiện</t>
   </si>
@@ -237,13 +237,58 @@
   </si>
   <si>
     <t>Chi tiết từ ngày 26/11 - 2/12</t>
+  </si>
+  <si>
+    <t>SharingVideo Planning</t>
+  </si>
+  <si>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <t>I. Cung cấp service video stream minh cho cơ sở giáo dục (tiểu học, mẫu giáo..)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Live streamming cho phụ huynh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - lưu trữ &amp; quản lý video</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - hỗ trợ xem lại &amp; detect video có xuất hiện con em của họ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Video chat cho bé: nhận dạng Dạng bé bằng hình ảnh &amp; start chat session với phụ huynh</t>
+  </si>
+  <si>
+    <t>II. Cung cấp dịch vụ lưu trữ &amp; cho thuê ngoài dịch vụ liên quan đến Video</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ref: ThiTruongSi.com</t>
+  </si>
+  <si>
+    <t>III. Liên thông với Youtube</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Dồng bộ video, playlist,…</t>
+  </si>
+  <si>
+    <t>IV. Dich vụ quảng cáo liên quan tới Video…</t>
+  </si>
+  <si>
+    <t>Upgrade Video Player</t>
+  </si>
+  <si>
+    <t>I. Nâng cấp Video Player</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - hỗ trợ Voice Control cho các function can bản: next, previos, mute, delay, resume, replay…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +298,22 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -357,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -411,6 +472,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,11 +502,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,10 +815,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O45"/>
+  <dimension ref="B1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,14 +833,16 @@
     <col min="9" max="9" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+    <row r="1" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -796,15 +875,15 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
       <c r="N3" s="6" t="s">
         <v>19</v>
       </c>
@@ -981,15 +1060,15 @@
       </c>
     </row>
     <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1098,15 +1177,15 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
     </row>
     <row r="24" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
@@ -1199,15 +1278,15 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
@@ -1273,26 +1352,26 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
@@ -1511,8 +1590,164 @@
         <v>14</v>
       </c>
     </row>
+    <row r="46" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B46" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="26"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B57" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B46:H46"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B34:H34"/>

--- a/docs/LVTN_DeTaiChiaSeVideo_Planing 26.11 - 02.12.xlsx
+++ b/docs/LVTN_DeTaiChiaSeVideo_Planing 26.11 - 02.12.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="85">
   <si>
     <t>Thời gian thực hiện</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>Chuyển data video Sang server lữu trữ</t>
-  </si>
-  <si>
-    <t>Còn check tiến trình encode hoàn thành.</t>
   </si>
   <si>
     <t>2/12</t>
@@ -481,6 +478,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,9 +507,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,8 +815,8 @@
   <dimension ref="B1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,19 +831,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -875,15 +872,15 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
       <c r="N3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1060,15 +1057,15 @@
       </c>
     </row>
     <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1177,15 +1174,15 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
     </row>
     <row r="24" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
@@ -1249,11 +1246,9 @@
         <v>42</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="13">
-        <v>0.8</v>
-      </c>
+      <c r="G27" s="13"/>
       <c r="H27" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -1267,7 +1262,7 @@
         <v>41</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6">
@@ -1278,15 +1273,15 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
@@ -1352,26 +1347,26 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="B33" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
@@ -1542,12 +1537,10 @@
       <c r="E43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="23" t="s">
-        <v>65</v>
-      </c>
+      <c r="F43" s="23"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -1561,7 +1554,7 @@
         <v>41</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6">
@@ -1576,12 +1569,12 @@
         <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
@@ -1591,19 +1584,19 @@
       </c>
     </row>
     <row r="46" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B46" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
+      <c r="B46" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="27"/>
@@ -1614,7 +1607,7 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="27"/>
@@ -1625,7 +1618,7 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="27"/>
@@ -1636,7 +1629,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="27"/>
@@ -1647,7 +1640,7 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="27"/>
@@ -1658,7 +1651,7 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="26"/>
       <c r="D52" s="27"/>
@@ -1669,7 +1662,7 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="27"/>
@@ -1680,7 +1673,7 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="27"/>
@@ -1691,7 +1684,7 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="27"/>
@@ -1702,7 +1695,7 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="29"/>
@@ -1712,19 +1705,19 @@
       <c r="H56" s="10"/>
     </row>
     <row r="57" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="30" t="s">
         <v>83</v>
-      </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="39" t="s">
-        <v>84</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="29"/>
@@ -1734,8 +1727,8 @@
       <c r="H58" s="10"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="39" t="s">
-        <v>85</v>
+      <c r="B59" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="29"/>
@@ -1746,15 +1739,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/LVTN_DeTaiChiaSeVideo_Planing 26.11 - 02.12.xlsx
+++ b/docs/LVTN_DeTaiChiaSeVideo_Planing 26.11 - 02.12.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="86">
   <si>
     <t>Thời gian thực hiện</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Coding Backend</t>
   </si>
   <si>
-    <t>Hiễn thị lên web từ database</t>
-  </si>
-  <si>
     <t>29/11</t>
   </si>
   <si>
@@ -279,6 +276,13 @@
   </si>
   <si>
     <t xml:space="preserve"> - hỗ trợ Voice Control cho các function can bản: next, previos, mute, delay, resume, replay…</t>
+  </si>
+  <si>
+    <t>chưa test trên 2 máy riêng biệt
+đã test trên 2 server tomcat trên cùng 1 laptop</t>
+  </si>
+  <si>
+    <t>Hiễn thị lên web từ database kèm Recommend</t>
   </si>
 </sst>
 </file>
@@ -415,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -481,32 +485,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,8 +822,8 @@
   <dimension ref="B1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,26 +831,27 @@
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -872,15 +880,15 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="38"/>
       <c r="N3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1057,15 +1065,15 @@
       </c>
     </row>
     <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1174,15 +1182,15 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
@@ -1262,7 +1270,7 @@
         <v>41</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6">
@@ -1273,15 +1281,15 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
@@ -1347,26 +1355,26 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
+      <c r="B33" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
     </row>
     <row r="34" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
@@ -1379,10 +1387,10 @@
         <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" t="s">
         <v>60</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
@@ -1400,10 +1408,10 @@
         <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" t="s">
         <v>60</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
@@ -1421,10 +1429,10 @@
         <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" t="s">
         <v>60</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
@@ -1442,10 +1450,10 @@
         <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" t="s">
         <v>60</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
@@ -1463,10 +1471,10 @@
         <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" t="s">
         <v>60</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
@@ -1484,10 +1492,10 @@
         <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
@@ -1504,7 +1512,7 @@
       <c r="D41" s="22"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
@@ -1513,7 +1521,7 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>19</v>
@@ -1526,7 +1534,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>19</v>
@@ -1543,7 +1551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>43</v>
       </c>
@@ -1554,14 +1562,14 @@
         <v>41</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6">
-        <v>0</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="6"/>
       <c r="H44" s="8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -1569,12 +1577,12 @@
         <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
@@ -1584,19 +1592,19 @@
       </c>
     </row>
     <row r="46" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B46" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
+      <c r="B46" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="27"/>
@@ -1607,7 +1615,7 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="27"/>
@@ -1618,7 +1626,7 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="27"/>
@@ -1629,7 +1637,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="27"/>
@@ -1640,7 +1648,7 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="27"/>
@@ -1651,7 +1659,7 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="26"/>
       <c r="D52" s="27"/>
@@ -1662,7 +1670,7 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="27"/>
@@ -1673,7 +1681,7 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="27"/>
@@ -1684,7 +1692,7 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="27"/>
@@ -1695,7 +1703,7 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="29"/>
@@ -1705,19 +1713,19 @@
       <c r="H56" s="10"/>
     </row>
     <row r="57" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B57" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
+      <c r="B57" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="29"/>
@@ -1728,7 +1736,7 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="29"/>
